--- a/Ford_Focus_1600_2003/DiagnosisWorkbook.xlsx
+++ b/Ford_Focus_1600_2003/DiagnosisWorkbook.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Car data" sheetId="1" r:id="rId1"/>
     <sheet name="Diagnosis" sheetId="2" r:id="rId2"/>
+    <sheet name="Consum" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Marca</t>
   </si>
@@ -138,6 +139,36 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Durata test</t>
+  </si>
+  <si>
+    <t>Data sfarsit</t>
+  </si>
+  <si>
+    <t>Data inceput</t>
+  </si>
+  <si>
+    <t>Kilometri inceput</t>
+  </si>
+  <si>
+    <t>Kilometri sfarsit</t>
+  </si>
+  <si>
+    <t>Kilometri test</t>
+  </si>
+  <si>
+    <t>Traseu urban</t>
+  </si>
+  <si>
+    <t>Stil</t>
+  </si>
+  <si>
+    <t>sportiv</t>
+  </si>
+  <si>
+    <t>Consum %</t>
   </si>
 </sst>
 </file>
@@ -173,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -184,11 +215,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -210,7 +250,7 @@
   <autoFilter ref="A1:B12"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Caracteristica"/>
-    <tableColumn id="2" name="Valoare" dataDxfId="1"/>
+    <tableColumn id="2" name="Valoare" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -220,7 +260,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L11" totalsRowShown="0">
   <autoFilter ref="A1:L11"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Nr. Test" dataDxfId="0"/>
+    <tableColumn id="1" name="Nr. Test" dataDxfId="1"/>
     <tableColumn id="2" name="Data"/>
     <tableColumn id="3" name="Kit OBD"/>
     <tableColumn id="4" name="Aplicatie OBD"/>
@@ -234,6 +274,26 @@
     <tableColumn id="12" name="Rezultat  general"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K13" totalsRowShown="0">
+  <autoFilter ref="A1:K13"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr. Test" dataDxfId="0"/>
+    <tableColumn id="2" name="Data inceput"/>
+    <tableColumn id="3" name="Data sfarsit"/>
+    <tableColumn id="4" name="Durata test"/>
+    <tableColumn id="5" name="Kilometri inceput"/>
+    <tableColumn id="6" name="Kilometri sfarsit"/>
+    <tableColumn id="7" name="Kilometri test"/>
+    <tableColumn id="8" name="Combustibil"/>
+    <tableColumn id="9" name="Traseu urban"/>
+    <tableColumn id="10" name="Stil"/>
+    <tableColumn id="11" name="Consum %"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -526,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -790,4 +850,164 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42981</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42984</v>
+      </c>
+      <c r="D2" s="4">
+        <f>DATEDIF(B2,C2,"d")</f>
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>192632</v>
+      </c>
+      <c r="F2" s="2">
+        <v>193179</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2-E2</f>
+        <v>547</v>
+      </c>
+      <c r="H2" s="2">
+        <v>39.669510000000002</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2">
+        <f>(100*H2)/G2</f>
+        <v>7.2521956124314446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Ford_Focus_1600_2003/DiagnosisWorkbook.xlsx
+++ b/Ford_Focus_1600_2003/DiagnosisWorkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Car data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Marca</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Consum %</t>
+  </si>
+  <si>
+    <t>74 kW 100 CP</t>
   </si>
 </sst>
 </file>
@@ -586,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,8 +651,8 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>74</v>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -856,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/Ford_Focus_1600_2003/DiagnosisWorkbook.xlsx
+++ b/Ford_Focus_1600_2003/DiagnosisWorkbook.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Car data" sheetId="1" r:id="rId1"/>
     <sheet name="Diagnosis" sheetId="2" r:id="rId2"/>
     <sheet name="Consum" sheetId="3" r:id="rId3"/>
+    <sheet name="Distributie" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Marca</t>
   </si>
@@ -172,6 +173,21 @@
   </si>
   <si>
     <t>74 kW 100 CP</t>
+  </si>
+  <si>
+    <t>ID anexe</t>
+  </si>
+  <si>
+    <t>Nr. Crt.</t>
+  </si>
+  <si>
+    <t>Km</t>
+  </si>
+  <si>
+    <t>Piese inlocuite</t>
+  </si>
+  <si>
+    <t>Kit complet</t>
   </si>
 </sst>
 </file>
@@ -228,7 +244,58 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -253,7 +320,7 @@
   <autoFilter ref="A1:B12"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Caracteristica"/>
-    <tableColumn id="2" name="Valoare" dataDxfId="2"/>
+    <tableColumn id="2" name="Valoare" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -263,7 +330,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L11" totalsRowShown="0">
   <autoFilter ref="A1:L11"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Nr. Test" dataDxfId="1"/>
+    <tableColumn id="1" name="Nr. Test" dataDxfId="18"/>
     <tableColumn id="2" name="Data"/>
     <tableColumn id="3" name="Kit OBD"/>
     <tableColumn id="4" name="Aplicatie OBD"/>
@@ -281,22 +348,36 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K13" totalsRowShown="0">
-  <autoFilter ref="A1:K13"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Nr. Test" dataDxfId="0"/>
-    <tableColumn id="2" name="Data inceput"/>
-    <tableColumn id="3" name="Data sfarsit"/>
-    <tableColumn id="4" name="Durata test"/>
-    <tableColumn id="5" name="Kilometri inceput"/>
-    <tableColumn id="6" name="Kilometri sfarsit"/>
-    <tableColumn id="7" name="Kilometri test"/>
-    <tableColumn id="8" name="Combustibil"/>
-    <tableColumn id="9" name="Traseu urban"/>
-    <tableColumn id="10" name="Stil"/>
-    <tableColumn id="11" name="Consum %"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:L13" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:L13"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Nr. Test" dataDxfId="17"/>
+    <tableColumn id="2" name="Data inceput" dataDxfId="16"/>
+    <tableColumn id="3" name="Data sfarsit" dataDxfId="15"/>
+    <tableColumn id="4" name="Durata test" dataDxfId="14"/>
+    <tableColumn id="5" name="Kilometri inceput" dataDxfId="13"/>
+    <tableColumn id="6" name="Kilometri sfarsit" dataDxfId="12"/>
+    <tableColumn id="7" name="Kilometri test" dataDxfId="11"/>
+    <tableColumn id="8" name="Combustibil" dataDxfId="10"/>
+    <tableColumn id="9" name="Traseu urban" dataDxfId="9"/>
+    <tableColumn id="10" name="Stil" dataDxfId="8"/>
+    <tableColumn id="11" name="Consum %" dataDxfId="7"/>
+    <tableColumn id="12" name="ID anexe" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D7" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:D7"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Nr. Crt." dataDxfId="4"/>
+    <tableColumn id="2" name="Data" dataDxfId="3"/>
+    <tableColumn id="3" name="Km" dataDxfId="2"/>
+    <tableColumn id="4" name="Piese inlocuite" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -589,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -857,10 +938,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,10 +956,11 @@
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -912,8 +994,11 @@
       <c r="K1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -943,68 +1028,192 @@
       <c r="I2" s="5">
         <v>0.2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K2" s="2">
         <f>(100*H2)/G2</f>
         <v>7.2521956124314446</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1013,4 +1222,94 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42983</v>
+      </c>
+      <c r="C2" s="2">
+        <v>193000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Ford_Focus_1600_2003/DiagnosisWorkbook.xlsx
+++ b/Ford_Focus_1600_2003/DiagnosisWorkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Car data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Marca</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Kit complet</t>
+  </si>
+  <si>
+    <t>agresiv</t>
   </si>
 </sst>
 </file>
@@ -315,6 +318,206 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grafic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> consum</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Consum!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consum %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Consum!$K$2:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.2521956124314446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8464173598553346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7930610434782617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="178524160"/>
+        <c:axId val="178525696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="178524160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178525696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178525696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178524160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>804333</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B12" totalsRowShown="0">
   <autoFilter ref="A1:B12"/>
@@ -348,34 +551,40 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:L13" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:L13" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="A1:L13"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Nr. Test" dataDxfId="17"/>
-    <tableColumn id="2" name="Data inceput" dataDxfId="16"/>
-    <tableColumn id="3" name="Data sfarsit" dataDxfId="15"/>
-    <tableColumn id="4" name="Durata test" dataDxfId="14"/>
-    <tableColumn id="5" name="Kilometri inceput" dataDxfId="13"/>
-    <tableColumn id="6" name="Kilometri sfarsit" dataDxfId="12"/>
-    <tableColumn id="7" name="Kilometri test" dataDxfId="11"/>
-    <tableColumn id="8" name="Combustibil" dataDxfId="10"/>
-    <tableColumn id="9" name="Traseu urban" dataDxfId="9"/>
-    <tableColumn id="10" name="Stil" dataDxfId="8"/>
-    <tableColumn id="11" name="Consum %" dataDxfId="7"/>
-    <tableColumn id="12" name="ID anexe" dataDxfId="6"/>
+    <tableColumn id="1" name="Nr. Test" dataDxfId="16"/>
+    <tableColumn id="2" name="Data inceput" dataDxfId="15"/>
+    <tableColumn id="3" name="Data sfarsit" dataDxfId="14"/>
+    <tableColumn id="4" name="Durata test" dataDxfId="13">
+      <calculatedColumnFormula>DATEDIF(B2,C2,"d")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Kilometri inceput" dataDxfId="12"/>
+    <tableColumn id="6" name="Kilometri sfarsit" dataDxfId="11"/>
+    <tableColumn id="7" name="Kilometri test" dataDxfId="10">
+      <calculatedColumnFormula>F2-E2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Combustibil" dataDxfId="9"/>
+    <tableColumn id="9" name="Traseu urban" dataDxfId="8"/>
+    <tableColumn id="10" name="Stil" dataDxfId="7"/>
+    <tableColumn id="11" name="Consum %" dataDxfId="6">
+      <calculatedColumnFormula>(100*H2)/G2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="ID anexe" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D7" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D7" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:D7"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Nr. Crt." dataDxfId="4"/>
-    <tableColumn id="2" name="Data" dataDxfId="3"/>
-    <tableColumn id="3" name="Km" dataDxfId="2"/>
-    <tableColumn id="4" name="Piese inlocuite" dataDxfId="1"/>
+    <tableColumn id="1" name="Nr. Crt." dataDxfId="3"/>
+    <tableColumn id="2" name="Data" dataDxfId="2"/>
+    <tableColumn id="3" name="Km" dataDxfId="1"/>
+    <tableColumn id="4" name="Piese inlocuite" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -940,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,33 +1252,83 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="B3" s="3">
+        <v>42984</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42993</v>
+      </c>
+      <c r="D3" s="4">
+        <f>DATEDIF(B3,C3,"d")</f>
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>193179</v>
+      </c>
+      <c r="F3" s="2">
+        <v>193732</v>
+      </c>
+      <c r="G3" s="2">
+        <f>F3-E3</f>
+        <v>553</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43.390687999999997</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="2">
+        <f>(100*H3)/G3</f>
+        <v>7.8464173598553346</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="B4" s="3">
+        <v>42993</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43001</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D13" si="0">DATEDIF(B4,C4,"d")</f>
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>193732</v>
+      </c>
+      <c r="F4" s="2">
+        <v>194307</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G13" si="1">F4-E4</f>
+        <v>575</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44.810101000000003</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K13" si="2">(100*H4)/G4</f>
+        <v>7.7930610434782617</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1077,14 +1336,23 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1093,14 +1361,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1109,14 +1386,23 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1125,14 +1411,23 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1141,14 +1436,23 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1157,14 +1461,23 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1173,14 +1486,23 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1189,14 +1511,23 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1205,21 +1536,31 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1228,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/Ford_Focus_1600_2003/DiagnosisWorkbook.xlsx
+++ b/Ford_Focus_1600_2003/DiagnosisWorkbook.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Marca</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>agresiv</t>
+  </si>
+  <si>
+    <t>cargo</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
                   <c:v>7.7930610434782617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.8881984265734264</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -434,11 +437,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="178524160"/>
-        <c:axId val="178525696"/>
+        <c:axId val="174892160"/>
+        <c:axId val="174893696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178524160"/>
+        <c:axId val="174892160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +450,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178525696"/>
+        <c:crossAx val="174893696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -455,7 +458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178525696"/>
+        <c:axId val="174893696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -466,7 +469,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178524160"/>
+        <c:crossAx val="174892160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -487,16 +490,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>804333</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>173566</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>592666</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1150,7 +1153,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,26 +1337,42 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="3">
+        <v>43001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43013</v>
+      </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>194307</v>
+      </c>
+      <c r="F5" s="2">
+        <v>194879</v>
+      </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="e">
+        <v>572</v>
+      </c>
+      <c r="H5" s="2">
+        <v>50.840494999999997</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="2"/>
+        <v>8.8881984265734264</v>
+      </c>
+      <c r="L5" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
